--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.318000000000001</v>
+        <v>-7.977000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.182</v>
+        <v>-13.682</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>6.534000000000001</v>
+        <v>6.415000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.87</v>
+        <v>16.443</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.144</v>
+        <v>5.86</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.198</v>
+        <v>17.027</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.008</v>
+        <v>-13.741</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.07</v>
+        <v>5.249</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.981999999999999</v>
+        <v>-8.784000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.478000000000002</v>
+        <v>-8.113000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.844</v>
+        <v>-12.673</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.624000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.874</v>
+        <v>-12.24</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.178</v>
+        <v>-12.981</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.16</v>
+        <v>-13.105</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.762</v>
+        <v>17.041</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.514</v>
+        <v>16.358</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.866</v>
+        <v>8.494</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.91</v>
+        <v>-8.468</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.688</v>
+        <v>17.212</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.792</v>
+        <v>-7.836</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.446000000000001</v>
+        <v>-7.605999999999999</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>16.074</v>
+        <v>16.349</v>
       </c>
     </row>
     <row r="50">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.816</v>
+        <v>5.194</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.778</v>
+        <v>16.166</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.494</v>
+        <v>-8.403</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.922</v>
+        <v>5.403</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.794</v>
+        <v>-11.083</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.052</v>
+        <v>17.438</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.236000000000001</v>
+        <v>-7.841999999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.354</v>
+        <v>-12.977</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.168</v>
+        <v>6.353</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.449999999999999</v>
+        <v>7.631</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.566</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="82">
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.326</v>
+        <v>-13.393</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.438</v>
+        <v>-13.476</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.794</v>
+        <v>17.853</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.358</v>
+        <v>-7.564000000000002</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.748</v>
+        <v>-12.628</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.16</v>
+        <v>-13.294</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,10 +2151,10 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-11.816</v>
+        <v>-12.612</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.874000000000001</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.192</v>
+        <v>-13.086</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
